--- a/biology/Botanique/Karl_Rechinger/Karl_Rechinger.xlsx
+++ b/biology/Botanique/Karl_Rechinger/Karl_Rechinger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Karl Rechinger (9 avril 1867 - 29 novembre 1952) est un botaniste autrichien né à Vienne. Il est le père du botaniste Karl Heinz Rechinger (1906-1998).
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Il étudie à l'université de Vienne et obtient son doctorat en 1893. Il sert ensuite comme démonstrateur, suivi d'un travail d'assistant au jardin botanique de l'université. À partir de 1902, il occupe diverses fonctions au Naturhistorisches Museum de Vienne et, à partir de 1918, il est conservateur du département de botanique [1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Il étudie à l'université de Vienne et obtient son doctorat en 1893. Il sert ensuite comme démonstrateur, suivi d'un travail d'assistant au jardin botanique de l'université. À partir de 1902, il occupe diverses fonctions au Naturhistorisches Museum de Vienne et, à partir de 1918, il est conservateur du département de botanique .
 En 1905, avec sa femme Lily Rechinger-Favarger (1880-1973), il participe à une expédition en Océanie, où il effectue des recherches botaniques aux Samoa, aux îles Salomon et en Nouvelle-Guinée. À la suite de ce voyage, il publie les deux ouvrages suivants :
 Deutsch Neu-Guinea. Streifzüge in Deutsch Neu-Guinea et auf den Salomons-Inseln , (1908).
 Botanische and zoologische Ergebnisse einer wissenschaftlichen Forschungsreise nach den Samoa-Inseln, dem Neuguinea-Archipel and den Salomons-Inseln, (1908–15).</t>
@@ -544,7 +558,9 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces végétales Alpinia rechingeri, Areca rechingeriana, Balaka rechingeriana, Berberis rechingeri, Carduus rechingeri, Carex rechingeri, Celsia rechingeri, Euphrasia rechingeri, Galeopsis rechingeri, Guillainia rechingeri, Laportea rechingeri, Lycianthes rechingeri, Mariscus rechingeri , Masdevallia rechingeri, Masdevallia rechingeri, , Ophrys rechingeri, Pandanus rechingerii, Pelasites rechingeri, Piper rechingeri, Primula rechingeri, Schomburgkia rechingerana, Solanum rechingeri, Syzygium rechingeri, Tylophora rechingeri et Wedelia rechingeriana portent son nom.
 </t>
